--- a/biology/Botanique/Fritillaria_conica/Fritillaria_conica.xlsx
+++ b/biology/Botanique/Fritillaria_conica/Fritillaria_conica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fritillaria conica
-Fritillaria conica est une espèce de plantes à fleurs de la famille des liliacées (Liliaceae), originaire du sud-ouest de la Grèce[1]. Elle est endémique du Péloponnèse.
+Fritillaria conica est une espèce de plantes à fleurs de la famille des liliacées (Liliaceae), originaire du sud-ouest de la Grèce. Elle est endémique du Péloponnèse.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fritillaria conica est une herbe de 7-35 cm de haut avec une tige glabre portant 5-8 feuilles vert clair, brillantes et non glauques. Les feuilles sont lancéolées à oblongues-lancéolées. Les feuilles basales sont opposées, les feuilles supérieures sont alternes. Les 1-2 fleurs terminales, en forme de cône ou de dôme, sont de couleur jaune clair sans aucun motif. Les fleurs sont penchées. Après la pollinisation, des capsules non ailées, cylindriques à subglobales, se forment[2],[3] et contiennent des graines largement ailées, qui sont parmi les plus larges parmi les espèces grecques de Fritillaria[4].
-Le jeu de chromosomes diploïde est de 2n = 24[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fritillaria conica est une herbe de 7-35 cm de haut avec une tige glabre portant 5-8 feuilles vert clair, brillantes et non glauques. Les feuilles sont lancéolées à oblongues-lancéolées. Les feuilles basales sont opposées, les feuilles supérieures sont alternes. Les 1-2 fleurs terminales, en forme de cône ou de dôme, sont de couleur jaune clair sans aucun motif. Les fleurs sont penchées. Après la pollinisation, des capsules non ailées, cylindriques à subglobales, se forment, et contiennent des graines largement ailées, qui sont parmi les plus larges parmi les espèces grecques de Fritillaria.
+Le jeu de chromosomes diploïde est de 2n = 24.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se trouve sur des pentes calcaires rocheuses à des altitudes de 350 m, en compagnie de Quercus coccifera, Pistacia lentiscus et Phlomis fruticosa. La floraison a lieu de mars à avril[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se trouve sur des pentes calcaires rocheuses à des altitudes de 350 m, en compagnie de Quercus coccifera, Pistacia lentiscus et Phlomis fruticosa. La floraison a lieu de mars à avril.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de l'espèce conica provient de la forme conique des fleurs.
 </t>
@@ -606,9 +624,11 @@
           <t>Conservation de l'espèce</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce menacée d'extinction possède de petites populations réparties sur une zone estimée à 400 km². Les populations ne couvrent qu'une superficie de 12 à 16 km²[5]. Il ne reste qu'environ 1175 spécimens adultes à l'état sauvage. Un chiffre qui continue à diminuer. Les populations ne sont toutefois pas très fragmentées et on les trouve dans quatre sites différents. La conservation de l'espèce est menacée par l'agriculture, l'aquaculture, l'élevage et l'élevage en ranch. Le surpâturage constitue un défi, car la formation de graines est limitée par la destruction des tiges fleuries. Cette espèce a également une faible capacité à se reproduire par voie végétative. Des efforts de conservation ex situ ont été entrepris et l'espèce est protégée à la fois par la législation nationale et internationale[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce menacée d'extinction possède de petites populations réparties sur une zone estimée à 400 km². Les populations ne couvrent qu'une superficie de 12 à 16 km². Il ne reste qu'environ 1175 spécimens adultes à l'état sauvage. Un chiffre qui continue à diminuer. Les populations ne sont toutefois pas très fragmentées et on les trouve dans quatre sites différents. La conservation de l'espèce est menacée par l'agriculture, l'aquaculture, l'élevage et l'élevage en ranch. Le surpâturage constitue un défi, car la formation de graines est limitée par la destruction des tiges fleuries. Cette espèce a également une faible capacité à se reproduire par voie végétative. Des efforts de conservation ex situ ont été entrepris et l'espèce est protégée à la fois par la législation nationale et internationale.
 </t>
         </is>
       </c>
